--- a/documents/presentation/regex.xlsx
+++ b/documents/presentation/regex.xlsx
@@ -2070,14 +2070,39 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="105"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="5"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>REGEX MATCHING</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2091,7 +2116,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2130,7 +2155,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent3">
+                <a:shade val="65000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2138,6 +2165,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$H$13:$H$14</c:f>
@@ -2189,7 +2273,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2197,6 +2281,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$H$13:$H$14</c:f>
@@ -2248,7 +2389,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent3">
+                <a:tint val="65000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2256,6 +2399,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$H$13:$H$14</c:f>
@@ -2292,15 +2492,16 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
         <c:axId val="515504704"/>
         <c:axId val="515498472"/>
       </c:barChart>
@@ -2311,6 +2512,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2333,7 +2548,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2360,53 +2575,72 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Correct</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="515504704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2420,7 +2654,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2456,7 +2690,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2534,42 +2768,8 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -3622,7 +3822,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3633,7 +3833,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3656,18 +3856,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -3679,7 +3879,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3687,11 +3887,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3723,35 +3926,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3763,30 +3976,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3808,15 +4025,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3831,10 +4046,46 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -3842,67 +4093,128 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3915,54 +4227,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3972,8 +4247,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3983,66 +4258,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4051,14 +4267,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4072,7 +4288,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -4088,8 +4304,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4105,6 +4321,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4112,14 +4339,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4537,7 +4758,7 @@
   <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:K14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
